--- a/report/reliability/by-comb/UFAL A.C. Simões-Ciências Sociais Aplicadas.xlsx
+++ b/report/reliability/by-comb/UFAL A.C. Simões-Ciências Sociais Aplicadas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9128125324618249</v>
+        <v>0.8849078463751132</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9101161750639555</v>
+        <v>0.8822196642248716</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9579392929177963</v>
+        <v>0.9286515717265399</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3732828006211988</v>
+        <v>0.3655559847223704</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>10.1254722494457</v>
+        <v>7.490381636449455</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.018398435124289965</v>
+        <v>0.024539477958901084</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.642954856361149</v>
+        <v>2.483005366726297</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6924962486164584</v>
+        <v>0.7014708174997054</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.38255041101018633</v>
+        <v>0.3556717023315669</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.9070787179248503</v>
+        <v>0.872763721410564</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.9042624865584387</v>
+        <v>0.870339483342941</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.953408600831813</v>
+        <v>0.9146356397740243</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3711983628154674</v>
+        <v>0.35871565482685863</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>9.445226370020608</v>
+        <v>6.712448058840577</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.01968163175651962</v>
+        <v>0.027576539360259594</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.028587768590164042</v>
+        <v>0.02942382295511356</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3812497992054398</v>
+        <v>0.3512483849503531</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.9013312852022529</v>
+        <v>0.8747758950169684</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.8995920433496547</v>
+        <v>0.8724735536689566</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9495045062601807</v>
+        <v>0.9185147023406095</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.35895818107686484</v>
+        <v>0.363108396227094</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>8.959370087395964</v>
+        <v>6.841510751457157</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.0211194086027396</v>
+        <v>0.026898507324877297</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.02688517938804287</v>
+        <v>0.029135144799211202</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.37488459699470345</v>
+        <v>0.3512483849503531</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.9043487167668542</v>
+        <v>0.8636271004316654</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9017570768880749</v>
+        <v>0.8635261169154655</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9478337341519459</v>
+        <v>0.9125957199069431</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.36454604331936374</v>
+        <v>0.34524297438049667</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>9.178850224771221</v>
+        <v>6.327409299115362</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.020465631654667412</v>
+        <v>0.029685639977704893</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.027711347278845933</v>
+        <v>0.026600571341229253</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.37488459699470345</v>
+        <v>0.3474928643857453</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.9057369408631438</v>
+        <v>0.8712201444762341</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.9032795767694852</v>
+        <v>0.8693141135173442</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.94903586098405</v>
+        <v>0.9137865330026262</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.36856423900562946</v>
+        <v>0.3566351399499161</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>9.339078000276016</v>
+        <v>6.651935697989222</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.01992019398964296</v>
+        <v>0.02756750466635653</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.028704957871053486</v>
+        <v>0.029434094338042095</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.3812497992054398</v>
+        <v>0.3512483849503531</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.9146437445362764</v>
+        <v>0.8842264041946315</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.9131616463951896</v>
+        <v>0.8795415663491616</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9549194674586344</v>
+        <v>0.9213775556868071</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.39658275009735544</v>
+        <v>0.3782904889482655</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>10.515649001717208</v>
+        <v>7.301618821465063</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.018222429193979615</v>
+        <v>0.02429837677153691</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.02378822969073284</v>
+        <v>0.030563057847733336</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.4104557700337056</v>
+        <v>0.38513751441867805</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.911061166626327</v>
+        <v>0.8811753522386092</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.9076711897668548</v>
+        <v>0.8771420606626091</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9559683038262694</v>
+        <v>0.924085836343553</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.38058574892198876</v>
+        <v>0.3730237878171434</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>9.830855477015662</v>
+        <v>7.139482115631238</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.018666686020840772</v>
+        <v>0.02516210882132019</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03084091308254017</v>
+        <v>0.03441247697663144</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.41759167466602787</v>
+        <v>0.3978615424393153</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.9079693137841077</v>
+        <v>0.8825828179276455</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.9051286002384278</v>
+        <v>0.8788547893702219</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9525911881135264</v>
+        <v>0.9225577733570085</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.3735460502702498</v>
+        <v>0.3767708995429302</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>9.540584438652415</v>
+        <v>7.254556616819278</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.019429992714797267</v>
+        <v>0.024978727658359644</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.030245228187960167</v>
+        <v>0.031297830876834416</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.38255041101018633</v>
+        <v>0.38766182634569646</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.9103290414878398</v>
+        <v>0.8864957011940702</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.9072492358375442</v>
+        <v>0.8846141021492007</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.956651682320693</v>
+        <v>0.925504472879336</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.379401939139271</v>
+        <v>0.38982751987905484</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>9.78158233013014</v>
+        <v>7.666570340277266</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.018900969090584346</v>
+        <v>0.024476772953952328</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.030229387587181578</v>
+        <v>0.026583743893394768</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3944534789897409</v>
+        <v>0.38766182634569646</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.9118423600432827</v>
+        <v>0.8768331144331879</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9087607824610533</v>
+        <v>0.8742513756939003</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9549740023440012</v>
+        <v>0.9174783810313732</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.38367190981421656</v>
+        <v>0.36683391455234077</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.960199210094455</v>
+        <v>6.952373280567918</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.018569209968840213</v>
+        <v>0.026332801544713465</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.02907940431149704</v>
+        <v>0.03259758841311503</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.4003102071924071</v>
+        <v>0.3556717023315669</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.9127053993137805</v>
+        <v>0.879837754194231</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9089743437701315</v>
+        <v>0.8768350685850199</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9546087938897003</v>
+        <v>0.9258067470891246</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.38428179933930645</v>
+        <v>0.37235848655005876</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>9.985913657954685</v>
+        <v>7.119194226079635</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.018201989424315747</v>
+        <v>0.02564026913006799</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.028891866077837988</v>
+        <v>0.033444921647712726</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.4003102071924071</v>
+        <v>0.38094345009790587</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.9044384032758391</v>
+        <v>0.8708812541205772</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9016062960888002</v>
+        <v>0.8682110532339217</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9502581067101613</v>
+        <v>0.9170951648212641</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.3641521353398679</v>
+        <v>0.3544183792128704</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>9.163251918054614</v>
+        <v>6.587889762674658</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.020215733343075713</v>
+        <v>0.027626663309306826</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03000310352287168</v>
+        <v>0.032358378352147214</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.37488459699470345</v>
+        <v>0.3474928643857453</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.9030383519450316</v>
+        <v>0.8796839275635444</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.9007576031445621</v>
+        <v>0.8778830035125894</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9499107737159477</v>
+        <v>0.9176004773103145</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.36194832037192143</v>
+        <v>0.37463742938360156</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>9.076338658533784</v>
+        <v>7.188868288314748</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.020595500740314368</v>
+        <v>0.025823722593168466</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.027618287176609538</v>
+        <v>0.02964151872402427</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.37488459699470345</v>
+        <v>0.3688547966439023</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.9078236055697941</v>
+        <v>0.8660693807967674</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.9044713048952734</v>
+        <v>0.8620156085301792</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9504551260097083</v>
+        <v>0.9119332397924266</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.37176209192717596</v>
+        <v>0.34236473012018487</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>9.468058826761077</v>
+        <v>6.247196507865275</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.019444526443130175</v>
+        <v>0.02862649406081409</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.030729044042078595</v>
+        <v>0.030457452095134726</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.38255041101018633</v>
+        <v>0.319609893542391</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9096025362223911</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9065922555470567</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9527878396492517</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.37757117630734766</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>9.705750426334053</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.019049798095690854</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.030639560096611514</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.38766182634569646</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.9074368684580865</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9050722268335387</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9544778784210491</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.373392478837007</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.534324851868613</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.01959342029613771</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.027986748009922867</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3800260990831679</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.9022073710315629</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.8986049290776561</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9492811806131386</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.3564582642739559</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>8.86241235302135</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.02066615765766222</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.0290087836366422</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.3547305571429904</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.9097411224854114</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9071720682588214</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9481068788714105</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.37918611970339045</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>9.77261963336837</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.01907353263693767</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.029028447898891144</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3920048142366491</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>43.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.735077653762858</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6976572211587908</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.6890767818100335</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.6506717080075403</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>3.0232558139534884</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.4055734652925262</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>43.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.6976478151245719</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.6630116569635597</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.6432777197889539</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.6114427704248027</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.4186046511627906</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.3135295624409917</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>43.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.8375095864193228</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.8039162910100809</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.8063755628092633</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.7869166981338672</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.2093023255813953</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.2828194308386975</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>43.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.7359031698997593</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.7140662480421817</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.7055667362742519</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6751537111699945</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.8604651162790697</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.059680889720989</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6901928290700587</v>
+        <v>0.4927011563525789</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.663403131119807</v>
+        <v>0.5432704475308552</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6462876576725008</v>
+        <v>0.5112178286185189</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6245079491756789</v>
+        <v>0.4044367232540825</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.4186046511627906</v>
+        <v>3.2790697674418605</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3135295624409917</v>
+        <v>0.9838113784409818</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.8239700570604073</v>
+        <v>0.5467773998864689</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.7983148319163005</v>
+        <v>0.5848089346645639</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.7986260434982568</v>
+        <v>0.5408968172058447</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.7837309475851277</v>
+        <v>0.47055363237961173</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.2093023255813953</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2828194308386975</v>
+        <v>0.9143860686895391</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.76271774081587</v>
+        <v>0.5091993993109865</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.7367252236039897</v>
+        <v>0.55525545358883</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.7369197901392539</v>
+        <v>0.5208100803884406</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.7052357368409589</v>
+        <v>0.435931255007596</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.0232558139534884</v>
+        <v>2.6511627906976742</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.4055734652925262</v>
+        <v>0.8418720898838254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.7110995857380255</v>
+        <v>0.3858081663791971</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6924365336364555</v>
+        <v>0.45227785103664536</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6886465756882714</v>
+        <v>0.409798399397267</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6620477667160225</v>
+        <v>0.32078196581060453</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.8604651162790697</v>
+        <v>1.930232558139535</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.059680889720989</v>
+        <v>0.6688778391280679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.32894956591283037</v>
+        <v>0.6392247385597937</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.38361554830346073</v>
+        <v>0.6336284831006662</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3624588574685549</v>
+        <v>0.6099859003793109</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2769017090288844</v>
+        <v>0.5647163103753564</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.930232558139535</v>
+        <v>2.558139534883721</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.6688778391280679</v>
+        <v>1.0305413644662542</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5255961861808599</v>
+        <v>0.6037941172349786</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5599350411264994</v>
+        <v>0.590056167692375</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5299934429658264</v>
+        <v>0.5399555837199126</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.46588454162861126</v>
+        <v>0.5121634823076505</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.2093023255813953</v>
+        <v>2.0930232558139537</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9143860686895391</v>
+        <v>1.1713637450663281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6411122298358543</v>
+        <v>0.7402802015996505</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6375268398826932</v>
+        <v>0.7315498464203305</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6214653793445633</v>
+        <v>0.7124358354688233</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5850087010114173</v>
+        <v>0.6730632300249918</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.558139534883721</v>
+        <v>2.9069767441860463</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.0305413644662542</v>
+        <v>1.1713637450663281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.5840737830302154</v>
+        <v>0.582934037548554</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.5729830329469389</v>
+        <v>0.5720821389383633</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.540543000904109</v>
+        <v>0.5492321024485811</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.5125911142702149</v>
+        <v>0.5047268283691898</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.0930232558139537</v>
+        <v>2.2790697674418605</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.1713637450663281</v>
+        <v>0.9838113784409818</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>43.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.487567525523258</v>
+        <v>0.8259085310393876</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.525919270462819</v>
+        <v>0.8266170118594451</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.5051423666703962</v>
+        <v>0.8255157543048817</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.43018683079000036</v>
+        <v>0.7851312560557353</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.6511627906976742</v>
+        <v>2.86046511627907</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.8418720898838254</v>
+        <v>1.0137482393581612</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>43.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.4745460220995251</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.5191970473059236</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.49831254388776536</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.4059332597759527</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.2790697674418605</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>0.9838113784409818</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>43.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.7471374179047998</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.7410668907953757</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.7325787745620851</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6978703034926821</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.9069767441860463</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.1713637450663281</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>43.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7843190306279568</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.765357414573201</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.7619343235736276</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.7413226139869102</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>3.13953488372093</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>1.1666271152922452</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>43.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.6480648798349201</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.6571896896143395</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.6472124780114817</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.6005831278288252</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.9069767441860463</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.894798553769083</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>43.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5811451192659814</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5931617633518018</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.5750459939619316</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.525503096944303</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.8372093023255816</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.9240241328053314</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>43.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6624937315972084</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6392195094602376</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.617778689830128</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.6031752117036646</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.7674418604651163</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.130469967637261</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>43.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.823121395480261</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.8258690002230112</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.8235785004853744</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.7921379971776091</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.86046511627907</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>1.0137482393581612</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.46511627906976744</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.023255813953488372</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>43.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5793898087672925</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5753618021336546</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5693351556191151</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.5197197816645365</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.2790697674418605</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>0.9838113784409818</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.4883720930232558</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.27906976744186046</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.023255813953488372</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.046511627906976744</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.32558139534883723</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.3953488372093023</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.4883720930232558</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.3953488372093023</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.627906976744186</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.023255813953488372</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.32558139534883723</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.2558139534883721</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.16279069767441862</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.18604651162790697</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.06976744186046512</v>
+        <v>0.023255813953488372</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.46511627906976744</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.09302325581395349</v>
+        <v>0.20930232558139536</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.23255813953488372</v>
+        <v>0.16279069767441862</v>
       </c>
       <c r="E54" t="n" s="112">
         <v>0.18604651162790697</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.023255813953488372</v>
+        <v>0.0</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="C55" t="n" s="110">
         <v>0.11627906976744186</v>
       </c>
-      <c r="C55" t="n" s="110">
+      <c r="D55" t="n" s="111">
         <v>0.3488372093023256</v>
       </c>
-      <c r="D55" t="n" s="111">
-        <v>0.18604651162790697</v>
-      </c>
       <c r="E55" t="n" s="112">
-        <v>0.09302325581395349</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.2558139534883721</v>
+        <v>0.046511627906976744</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,16 +3577,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.4883720930232558</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.27906976744186046</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.13953488372093023</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="E56" t="n" s="112">
         <v>0.06976744186046512</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.23255813953488372</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.627906976744186</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.11627906976744186</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.023255813953488372</v>
+        <v>0.20930232558139536</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.0</v>
+        <v>0.046511627906976744</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.4883720930232558</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.18604651162790697</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.11627906976744186</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.5348837209302325</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.11627906976744186</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.023255813953488372</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.4418604651162791</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.16279069767441862</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.18604651162790697</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.3953488372093023</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.16279069767441862</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.046511627906976744</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.16279069767441862</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.32558139534883723</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.3953488372093023</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.18604651162790697</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.11627906976744186</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.3488372093023256</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.046511627906976744</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.023255813953488372</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.3953488372093023</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.046511627906976744</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.5581395348837209</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.4186046511627907</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.32558139534883723</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.18604651162790697</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.32558139534883723</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.023255813953488372</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.3953488372093023</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.046511627906976744</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.023255813953488372</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,25 +3771,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.8382080329557159</v>
+        <v>0.8427275672173633</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.8413747193972357</v>
+        <v>0.848470480428397</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.8024087384058227</v>
+        <v>0.7897089806421949</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.6387355178859989</v>
+        <v>0.6511374043238191</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>5.304165365067125</v>
+        <v>5.599374186806318</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.04131142727503424</v>
+        <v>0.04090560688380314</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.014084282107597164</v>
+        <v>6.480369529693906E-4</v>
       </c>
       <c r="I11" t="n" s="179">
         <v>0.6525354853107233</v>
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7748057713651497</v>
+        <v>0.8382080329557159</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7882863699475384</v>
+        <v>0.8413747193972357</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7273379162541649</v>
+        <v>0.8024087384058228</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5537946279667515</v>
+        <v>0.6387355178859989</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.7233614564740347</v>
+        <v>5.304165365067125</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.059960862918546465</v>
+        <v>0.04131142727503424</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.011617202033247136</v>
+        <v>0.014084282107597164</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5137616048670172</v>
+        <v>0.6525354853107233</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8427275672173633</v>
+        <v>0.7748057713651497</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.848470480428397</v>
+        <v>0.7882863699475384</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7897089806421949</v>
+        <v>0.7273379162541649</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.6511374043238191</v>
+        <v>0.5537946279667515</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>5.599374186806318</v>
+        <v>3.7233614564740347</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.04090560688380314</v>
+        <v>0.059960862918546465</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>6.480369529693906E-4</v>
+        <v>0.01161720203324714</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6525354853107233</v>
+        <v>0.5137616048670172</v>
       </c>
     </row>
     <row r="14">
@@ -4188,7 +3864,7 @@
         <v>0.8276911626813203</v>
       </c>
       <c r="D14" t="n" s="174">
-        <v>0.7923361198726997</v>
+        <v>0.7923361198726998</v>
       </c>
       <c r="E14" t="n" s="175">
         <v>0.6155587408179404</v>
@@ -4197,10 +3873,10 @@
         <v>4.803532863207306</v>
       </c>
       <c r="G14" t="n" s="177">
-        <v>0.04714854680287645</v>
+        <v>0.04714854680287653</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.01940931901594434</v>
+        <v>0.019409319015944348</v>
       </c>
       <c r="I14" t="n" s="179">
         <v>0.6250106038005306</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>43.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8189615010474696</v>
+        <v>0.8276477738969841</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8219881063142267</v>
+        <v>0.810957937252686</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.735326518231929</v>
+        <v>0.738679139961359</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.665124716918604</v>
+        <v>0.6638898903144029</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.4186046511627906</v>
+        <v>3.0232558139534884</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.3135295624409917</v>
+        <v>1.4055734652925262</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>43.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.9020918220063346</v>
+        <v>0.8189615010474696</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8975340630317357</v>
+        <v>0.8219881063142267</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.8712849913615544</v>
+        <v>0.735326518231929</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.8124995123671386</v>
+        <v>0.665124716918604</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.2093023255813953</v>
+        <v>2.4186046511627906</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.2828194308386975</v>
+        <v>1.3135295624409917</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>43.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.8276477738969841</v>
+        <v>0.9020918220063346</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.810957937252686</v>
+        <v>0.8975340630317357</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.738679139961359</v>
+        <v>0.8712849913615545</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6638898903144029</v>
+        <v>0.8124995123671386</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>3.0232558139534884</v>
+        <v>2.2093023255813953</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.4055734652925262</v>
+        <v>1.2828194308386975</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.8426014033835117</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.7669857606718326</v>
+        <v>0.7669857606718324</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.709368622975901</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.32558139534883723</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="C27" t="n" s="224">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="D27" t="n" s="225">
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="E27" t="n" s="226">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="F27" t="n" s="227">
         <v>0.2558139534883721</v>
-      </c>
-      <c r="D27" t="n" s="225">
-        <v>0.16279069767441862</v>
-      </c>
-      <c r="E27" t="n" s="226">
-        <v>0.18604651162790697</v>
-      </c>
-      <c r="F27" t="n" s="227">
-        <v>0.06976744186046512</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.46511627906976744</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.09302325581395349</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.23255813953488372</v>
+        <v>0.16279069767441862</v>
       </c>
       <c r="E28" t="n" s="226">
         <v>0.18604651162790697</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.023255813953488372</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.11627906976744186</v>
+        <v>0.46511627906976744</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.3488372093023256</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="D29" t="n" s="225">
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="E29" t="n" s="226">
         <v>0.18604651162790697</v>
       </c>
-      <c r="E29" t="n" s="226">
-        <v>0.09302325581395349</v>
-      </c>
       <c r="F29" t="n" s="227">
-        <v>0.2558139534883721</v>
+        <v>0.023255813953488372</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4627,25 +4303,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.6940157323508912</v>
+        <v>0.672799214417745</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7051157064736369</v>
+        <v>0.6893420683936008</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.6969793372695128</v>
+        <v>0.670000132152937</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.32351625604322976</v>
+        <v>0.3073808598491131</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.3911606075777603</v>
+        <v>2.2189746285537986</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.07472847052573091</v>
+        <v>0.07787253306843106</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.016145318417296196</v>
+        <v>0.013425397744580963</v>
       </c>
       <c r="I11" t="n" s="293">
         <v>0.3474928643857453</v>
@@ -4662,7 +4338,7 @@
         <v>0.6982375092241524</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.7044594571817475</v>
+        <v>0.7044594571817476</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.3163668792718868</v>
@@ -4674,7 +4350,7 @@
         <v>0.08063833914053752</v>
       </c>
       <c r="H12" t="n" s="292">
-        <v>0.032270967893334196</v>
+        <v>0.03227096789333419</v>
       </c>
       <c r="I12" t="n" s="293">
         <v>0.2684780787724752</v>
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7159239842726082</v>
+        <v>0.6842372700042789</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7434530895156627</v>
+        <v>0.7029826189652938</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7337788616791818</v>
+        <v>0.6956219158149517</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.36692213205130714</v>
+        <v>0.32127983649969816</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>2.897922598686107</v>
+        <v>2.3668063347550397</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.0696052162378195</v>
+        <v>0.07601544217864174</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.026148261166782816</v>
+        <v>0.0204472481278716</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.3713791085709207</v>
+        <v>0.35486713773570333</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7400022466861379</v>
+        <v>0.6940157323508912</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7553682789753398</v>
+        <v>0.7051157064736369</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7462808995119851</v>
+        <v>0.6969793372695127</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.3817831766887836</v>
+        <v>0.32351625604322976</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.0877773160872897</v>
+        <v>2.3911606075777603</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.06330351734091491</v>
+        <v>0.07472847052573092</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.021976445234963015</v>
+        <v>0.016145318417296193</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.38094345009790587</v>
+        <v>0.3474928643857453</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.6842372700042789</v>
+        <v>0.7159239842726082</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7029826189652938</v>
+        <v>0.7434530895156627</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.6956219158149517</v>
+        <v>0.7337788616791815</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.32127983649969816</v>
+        <v>0.36692213205130714</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>2.3668063347550397</v>
+        <v>2.897922598686107</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.07601544217864174</v>
+        <v>0.06960521623781951</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.0204472481278716</v>
+        <v>0.02614826116678281</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.35486713773570333</v>
+        <v>0.3713791085709207</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.672799214417745</v>
+        <v>0.7400022466861379</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.6893420683936008</v>
+        <v>0.7553682789753398</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.6700001321529367</v>
+        <v>0.7462808995119851</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.3073808598491131</v>
+        <v>0.3817831766887836</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>2.2189746285537986</v>
+        <v>3.0877773160872897</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.07787253306843106</v>
+        <v>0.06330351734091491</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.013425397744580965</v>
+        <v>0.02197644523496301</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.3474928643857453</v>
+        <v>0.38094345009790587</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>43.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.641878711235322</v>
+        <v>0.7170128947276495</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7001056989837227</v>
+        <v>0.7403359076115558</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.6385556878749308</v>
+        <v>0.7081046370345234</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.5163104621792954</v>
+        <v>0.5448066588764836</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>1.930232558139535</v>
+        <v>3.2790697674418605</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.6688778391280679</v>
+        <v>0.9838113784409818</v>
       </c>
     </row>
     <row r="22">
@@ -4875,7 +4551,7 @@
         <v>0.7179311626791841</v>
       </c>
       <c r="E22" t="n" s="315">
-        <v>0.6319377213339329</v>
+        <v>0.6319377213339326</v>
       </c>
       <c r="F22" t="n" s="316">
         <v>0.5598029689785626</v>
@@ -4895,22 +4571,22 @@
         <v>43.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.6246331922545402</v>
+        <v>0.6743822593732756</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.5918822983017166</v>
+        <v>0.7056817396171994</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.46388758101662264</v>
+        <v>0.6406464944660513</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.4069912873826876</v>
+        <v>0.5190191311881093</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.558139534883721</v>
+        <v>2.6511627906976742</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.0305413644662542</v>
+        <v>0.8418720898838254</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>43.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.6173115157967373</v>
+        <v>0.641878711235322</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.5548294166122535</v>
+        <v>0.7001056989837227</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.4086893117414452</v>
+        <v>0.6385556878749308</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.3592204027980182</v>
+        <v>0.5163104621792954</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.0930232558139537</v>
+        <v>1.930232558139535</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.1713637450663281</v>
+        <v>0.6688778391280679</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>43.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6743822593732756</v>
+        <v>0.6246331922545402</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.7056817396171994</v>
+        <v>0.5918822983017166</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.6406464944660509</v>
+        <v>0.46388758101662275</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.5190191311881093</v>
+        <v>0.4069912873826876</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.6511627906976742</v>
+        <v>2.558139534883721</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.8418720898838254</v>
+        <v>1.0305413644662542</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>43.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.7170128947276495</v>
+        <v>0.6173115157967373</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.7403359076115558</v>
+        <v>0.5548294166122535</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.7081046370345234</v>
+        <v>0.4086893117414453</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.5448066588764836</v>
+        <v>0.3592204027980182</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.2790697674418605</v>
+        <v>2.0930232558139537</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>0.9838113784409818</v>
+        <v>1.1713637450663281</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.23255813953488372</v>
+        <v>0.046511627906976744</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.627906976744186</v>
+        <v>0.16279069767441862</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.11627906976744186</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.023255813953488372</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.0</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.09302325581395349</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.5348837209302325</v>
+        <v>0.37209302325581395</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.11627906976744186</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.23255813953488372</v>
+        <v>0.16279069767441862</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.023255813953488372</v>
+        <v>0.0</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,16 +4777,16 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.4418604651162791</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.20930232558139536</v>
+        <v>0.627906976744186</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.16279069767441862</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.18604651162790697</v>
+        <v>0.023255813953488372</v>
       </c>
       <c r="F34" t="n" s="341">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.06976744186046512</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.37209302325581395</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.3953488372093023</v>
+        <v>0.11627906976744186</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.16279069767441862</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.0</v>
+        <v>0.023255813953488372</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.046511627906976744</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C36" t="n" s="338">
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="D36" t="n" s="339">
         <v>0.16279069767441862</v>
       </c>
-      <c r="D36" t="n" s="339">
-        <v>0.32558139534883723</v>
-      </c>
       <c r="E36" t="n" s="340">
-        <v>0.3953488372093023</v>
+        <v>0.18604651162790697</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.06976744186046512</v>
+        <v>0.0</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8582247359906244</v>
+        <v>0.7579306979014153</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8570454198739474</v>
+        <v>0.7595857147425893</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8603488714540064</v>
+        <v>0.6802888378564746</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.4613407664750848</v>
+        <v>0.5129464205829803</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>5.995228828053166</v>
+        <v>3.159486608415566</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.03221345398068196</v>
+        <v>0.06283973912899841</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.956810631229236</v>
+        <v>2.682170542635659</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.7690154267946349</v>
+        <v>0.8696940055815077</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.46968929602279663</v>
+        <v>0.5189223669008665</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.828459273797841</v>
+        <v>0.6389728096676737</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.8278129304322462</v>
+        <v>0.6391681524712027</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.8244768245194382</v>
+        <v>0.46968929602279674</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.44483701778981294</v>
+        <v>0.46968929602279674</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>4.8076370223985405</v>
+        <v>1.7713739983003909</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.039805066773562554</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.011890197439094984</v>
-      </c>
+        <v>0.11004882378108899</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.45811079924295883</v>
+        <v>0.46968929602279663</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.8240541880059475</v>
+        <v>0.7051090528831792</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.8235731039736478</v>
+        <v>0.7098668598626761</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.8067976165659837</v>
+        <v>0.5502275988252783</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.43757399519931894</v>
+        <v>0.5502275988252783</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>4.668070019497673</v>
+        <v>2.4466934715788975</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.04063080570089306</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.006749721162929033</v>
-      </c>
+        <v>0.08861444998975741</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.45811079924295883</v>
+        <v>0.5502275988252782</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.8482944599517434</v>
+        <v>0.6764797995615408</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.8479326224393999</v>
+        <v>0.6832770103447088</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.8423710249119335</v>
+        <v>0.5189223669008665</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.48168769757342744</v>
+        <v>0.5189223669008665</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>5.576032388021503</v>
+        <v>2.1573331670314193</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.035296670753767315</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.008694497469153567</v>
-      </c>
+        <v>0.09665944283827611</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.4871418289022571</v>
+        <v>0.5189223669008665</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8503247214979852</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8497975558641319</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8474657519217603</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.48531788974861384</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>5.657681276447359</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.034573617952070736</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.010957587353342605</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.504706289522223</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.8372180845484107</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.8357290116633223</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.8380669850721971</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.4588501628852743</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>5.087502182372419</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.03746111711158618</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.013443435996196424</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.45811079924295883</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.8268106536524584</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.8247680069546837</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.8289586869846963</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.4396043099955379</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>4.706720460238061</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.03979814708594338</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.012771216976992579</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.4231532868221314</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.8495046634127483</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.8478430419285339</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.8382420658012897</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.4815142921336083</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>5.572160830990807</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.03429218201509625</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.01198020069368652</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.4871418289022571</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>43.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8584159943353848</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8393113689159378</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.7175095496672962</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.6238552007400113</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.9069767441860463</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.1713637450663281</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>43.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.7925411731599177</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.8066425366442301</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.6425479677219816</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.5630444923865853</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.2790697674418605</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>0.9838113784409818</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>43.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.8126806901079398</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.8193409091623807</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.6733083767910173</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.5884858136605189</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.86046511627907</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>1.0137482393581612</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>43.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7959344103392391</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7818861098323855</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7458126641999856</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6907688309174231</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.9069767441860463</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.1713637450663281</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.18604651162790697</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.11627906976744186</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.3023255813953488</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.046511627906976744</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>43.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.8144192668943947</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.8030990866217285</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.7921328785818317</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.717486497606814</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>3.13953488372093</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>1.1666271152922452</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.23255813953488372</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.3023255813953488</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.06976744186046512</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.023255813953488372</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>43.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.661330058479629</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.6742570056706504</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.604362804008203</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.5508762560473055</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.9069767441860463</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.894798553769083</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>43.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.6504317526682613</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.6636543700057316</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.5790393739875536</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.533239721595238</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.8372093023255816</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.9240241328053314</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>43.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.7511163408187166</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7409581741207751</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6800891266983392</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.6339211534551396</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.7674418604651163</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.130469967637261</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>43.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.7948819152278994</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.7971691834566712</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.7565267526056164</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.7069887633383389</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.86046511627907</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>1.0137482393581612</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>43.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6637037002383434</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6747634677564003</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.6057356376396973</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.5408295227733065</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.2790697674418605</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>0.9838113784409818</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.18604651162790697</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.11627906976744186</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.3488372093023256</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="F33" t="n" s="455">
+      <c r="B27" t="n" s="451">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="C27" t="n" s="452">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.3953488372093023</v>
+      </c>
+      <c r="E27" t="n" s="454">
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.046511627906976744</v>
       </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.023255813953488372</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.3953488372093023</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.046511627906976744</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.5581395348837209</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="F35" t="n" s="455">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.4186046511627907</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.32558139534883723</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.18604651162790697</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.32558139534883723</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.023255813953488372</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.09302325581395349</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.3953488372093023</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.046511627906976744</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.23255813953488372</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.023255813953488372</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
